--- a/kawa.xlsx
+++ b/kawa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbols\OneDrive - Akademia Górniczo-Hutnicza im. Stanisława Staszica w Krakowie\Kawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F3BD7B-E74C-4F91-BD75-E445506F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{C1F3BD7B-E74C-4F91-BD75-E445506F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7740B3B3-F5DD-4C46-91F5-B07EA80142BB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="14277" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>lp.</t>
   </si>
@@ -97,15 +97,12 @@
   <si>
     <t>Total Result</t>
   </si>
-  <si>
-    <t>None</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1212,7 +1209,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna1" cacheId="14277" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" compactData="0">
   <location ref="A2:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -1581,20 +1578,20 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="9" width="8.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
-    <col min="11" max="11" width="1.33203125" customWidth="1"/>
+    <col min="4" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="3">
         <v>8</v>
       </c>
@@ -1652,7 +1649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="5">
         <v>22</v>
       </c>
@@ -1668,9 +1665,7 @@
       <c r="E3" s="4">
         <v>45</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="F3" s="38"/>
       <c r="G3" s="4">
         <v>32</v>
       </c>
@@ -1681,7 +1676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1697,15 +1692,11 @@
       <c r="E4" s="4">
         <v>55</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="F4" s="38"/>
       <c r="G4" s="4">
         <v>15</v>
       </c>
-      <c r="H4" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="H4" s="38"/>
       <c r="I4" s="6">
         <v>55</v>
       </c>
@@ -1713,7 +1704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="5">
         <v>17</v>
       </c>
@@ -1729,20 +1720,16 @@
       <c r="E5" s="4">
         <v>40</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="F5" s="38"/>
       <c r="G5" s="4">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1758,20 +1745,16 @@
       <c r="E6" s="4">
         <v>60</v>
       </c>
-      <c r="F6" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="F6" s="38"/>
       <c r="G6" s="4">
         <v>51</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1787,9 +1770,7 @@
       <c r="E7" s="4">
         <v>70</v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="F7" s="38"/>
       <c r="G7" s="4">
         <v>55</v>
       </c>
@@ -1803,7 +1784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>14</v>
       </c>
@@ -1819,9 +1800,7 @@
       <c r="E8" s="4">
         <v>75</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="F8" s="38"/>
       <c r="G8" s="4">
         <v>67</v>
       </c>
@@ -1832,7 +1811,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="5">
         <v>12</v>
       </c>
@@ -1848,20 +1827,16 @@
       <c r="E9" s="4">
         <v>30</v>
       </c>
-      <c r="F9" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="F9" s="38"/>
       <c r="G9" s="4">
         <v>8</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>13</v>
       </c>
@@ -1871,14 +1846,24 @@
       <c r="C10" s="6">
         <v>96</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="4">
+        <v>60</v>
+      </c>
+      <c r="E10" s="4">
+        <v>70</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G10" s="4">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4">
+        <v>25</v>
+      </c>
+      <c r="I10" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5">
         <v>23</v>
       </c>
@@ -1895,7 +1880,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="5">
         <v>19</v>
       </c>
@@ -1912,7 +1897,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -1929,7 +1914,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1946,7 +1931,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -1963,7 +1948,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="5">
         <v>5</v>
       </c>
@@ -1980,7 +1965,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <v>18</v>
       </c>
@@ -1997,7 +1982,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="5">
         <v>10</v>
       </c>
@@ -2014,7 +1999,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="5">
         <v>0</v>
       </c>
@@ -2031,7 +2016,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -2048,7 +2033,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2065,7 +2050,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -2082,7 +2067,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="5">
         <v>16</v>
       </c>
@@ -2099,7 +2084,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2116,7 +2101,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -2133,7 +2118,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -2164,12 +2149,12 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2189,7 +2174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2199,7 +2184,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>11</v>
       </c>
@@ -2209,7 +2194,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>12</v>
       </c>
@@ -2219,7 +2204,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>13</v>
       </c>
@@ -2229,7 +2214,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>14</v>
       </c>
@@ -2239,7 +2224,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2259,7 +2244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>10</v>
       </c>
@@ -2269,7 +2254,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>11</v>
       </c>
@@ -2279,7 +2264,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>12</v>
       </c>
@@ -2289,7 +2274,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>13</v>
       </c>
@@ -2299,7 +2284,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2321,22 +2306,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11">
       <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11">
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11">
       <c r="B4" s="10"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -2365,7 +2350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11">
       <c r="C7">
         <v>8</v>
       </c>
@@ -2394,7 +2379,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11">
       <c r="C8">
         <v>22</v>
       </c>
@@ -2423,7 +2408,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11">
       <c r="C9">
         <v>1</v>
       </c>
@@ -2452,7 +2437,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11">
       <c r="C10">
         <v>17</v>
       </c>
@@ -2481,7 +2466,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11">
       <c r="C11">
         <v>4</v>
       </c>
@@ -2510,7 +2495,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11">
       <c r="C12">
         <v>6</v>
       </c>
@@ -2539,7 +2524,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11">
       <c r="C13">
         <v>14</v>
       </c>
@@ -2568,7 +2553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11">
       <c r="C14">
         <v>12</v>
       </c>
@@ -2597,7 +2582,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11">
       <c r="C15">
         <v>13</v>
       </c>
@@ -2626,7 +2611,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11">
       <c r="C16">
         <v>23</v>
       </c>
@@ -2655,7 +2640,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11">
       <c r="C17">
         <v>19</v>
       </c>
@@ -2684,7 +2669,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11">
       <c r="C18">
         <v>7</v>
       </c>
@@ -2713,7 +2698,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11">
       <c r="C19">
         <v>11</v>
       </c>
@@ -2742,7 +2727,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11">
       <c r="C20">
         <v>9</v>
       </c>
@@ -2771,7 +2756,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11">
       <c r="C21">
         <v>5</v>
       </c>
@@ -2800,7 +2785,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:11">
       <c r="C22">
         <v>18</v>
       </c>
@@ -2829,7 +2814,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:11">
       <c r="C23">
         <v>10</v>
       </c>
@@ -2858,7 +2843,7 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11">
       <c r="C24">
         <v>0</v>
       </c>
@@ -2887,7 +2872,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11">
       <c r="C25">
         <v>15</v>
       </c>
@@ -2916,7 +2901,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11">
       <c r="C26">
         <v>20</v>
       </c>
@@ -2945,7 +2930,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11">
       <c r="C27">
         <v>2</v>
       </c>
@@ -2974,7 +2959,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:11">
       <c r="C28">
         <v>16</v>
       </c>
@@ -3003,7 +2988,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11">
       <c r="C29">
         <v>21</v>
       </c>
@@ -3032,7 +3017,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:11">
       <c r="C30">
         <v>3</v>
       </c>
@@ -3061,7 +3046,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:11">
       <c r="C31">
         <v>24</v>
       </c>
@@ -3104,38 +3089,38 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="23" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="22.6640625" customWidth="1"/>
-    <col min="23" max="23" width="20.33203125" customWidth="1"/>
-    <col min="24" max="24" width="20.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" customWidth="1"/>
     <col min="25" max="25" width="23" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" customWidth="1"/>
-    <col min="27" max="27" width="22.6640625" customWidth="1"/>
-    <col min="28" max="28" width="20.33203125" customWidth="1"/>
-    <col min="29" max="29" width="20.6640625" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" customWidth="1"/>
+    <col min="27" max="27" width="22.7109375" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" customWidth="1"/>
+    <col min="29" max="29" width="20.7109375" customWidth="1"/>
     <col min="30" max="30" width="23" customWidth="1"/>
-    <col min="31" max="31" width="20.88671875" customWidth="1"/>
+    <col min="31" max="31" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
@@ -3148,7 +3133,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -3171,7 +3156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="19">
         <v>10</v>
       </c>
@@ -3194,7 +3179,7 @@
         <v>246.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="24">
         <v>11</v>
       </c>
@@ -3217,7 +3202,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="24">
         <v>12</v>
       </c>
@@ -3240,7 +3225,7 @@
         <v>246.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="24">
         <v>13</v>
       </c>
@@ -3263,7 +3248,7 @@
         <v>279.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="24">
         <v>14</v>
       </c>
@@ -3286,7 +3271,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="33" t="s">
         <v>16</v>
       </c>

--- a/kawa.xlsx
+++ b/kawa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27618"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbols\OneDrive - Akademia Górniczo-Hutnicza im. Stanisława Staszica w Krakowie\Kawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{C1F3BD7B-E74C-4F91-BD75-E445506F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7740B3B3-F5DD-4C46-91F5-B07EA80142BB}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{C1F3BD7B-E74C-4F91-BD75-E445506F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456A816D-CE5E-4674-9419-C39B20E29854}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="14277" r:id="rId5"/>
+    <pivotCache cacheId="11524" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna1" cacheId="14277" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna1" cacheId="11524" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" compactData="0">
   <location ref="A2:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -1578,7 +1578,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
@@ -1873,12 +1873,20 @@
       <c r="C11" s="6">
         <v>100</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="4">
+        <v>70</v>
+      </c>
+      <c r="E11" s="4">
+        <v>40</v>
+      </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <v>68</v>
+      </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5">
@@ -1890,12 +1898,22 @@
       <c r="C12" s="6">
         <v>98</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="4">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4">
+        <v>50</v>
+      </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="4">
+        <v>47</v>
+      </c>
+      <c r="H12" s="4">
+        <v>53</v>
+      </c>
+      <c r="I12" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5">
@@ -1907,11 +1925,19 @@
       <c r="C13" s="6">
         <v>94</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>31</v>
+      </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6</v>
+      </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:11">

--- a/kawa.xlsx
+++ b/kawa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27630"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbols\OneDrive - Akademia Górniczo-Hutnicza im. Stanisława Staszica w Krakowie\Kawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{C1F3BD7B-E74C-4F91-BD75-E445506F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456A816D-CE5E-4674-9419-C39B20E29854}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{C1F3BD7B-E74C-4F91-BD75-E445506F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E97364-E0E1-4007-A1E6-7F22CAED9907}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="11524" r:id="rId5"/>
+    <pivotCache cacheId="413" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>lp.</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Marcin Luter serdecznie nie pozdrawia Nadii Lech</t>
   </si>
   <si>
     <t>G/T</t>
@@ -702,6 +705,193 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626BD812-51BA-6ED3-EF60-C182B1F30588}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="504825"/>
+          <a:ext cx="2505075" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Pole tekstowe 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE9FDAE-4C9D-EC2F-5949-FDC69DA79466}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{626BD812-51BA-6ED3-EF60-C182B1F30588}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="3676650"/>
+          <a:ext cx="4248150" cy="233205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="http://histmag.org/Pijany-zarloczny-i-sprosny...-ksiadz.-Kosciol-polski-u-progu-kontrreformacji-9070"/>
+            </a:rPr>
+            <a:t>To zdjęcie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t> przez Nieznany autor jest licencjonowane w ramach </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tooltip="https://creativecommons.org/licenses/by-sa/3.0/"/>
+            </a:rPr>
+            <a:t>CC BY-SA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Uśmiechnięta buźka 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD34FA1-9088-06C6-6F76-C4F6CFB02FC2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DDE9FDAE-4C9D-EC2F-5949-FDC69DA79466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="504825"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1209,7 +1399,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna1" cacheId="11524" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna1" cacheId="413" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" compactData="0">
   <location ref="A2:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -1575,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
@@ -1950,12 +2140,22 @@
       <c r="C14" s="6">
         <v>96</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="4">
+        <v>70</v>
+      </c>
+      <c r="E14" s="4">
+        <v>60</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="4">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4">
+        <v>46</v>
+      </c>
+      <c r="I14" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5">
@@ -1967,11 +2167,21 @@
       <c r="C15" s="6">
         <v>94</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="D15" s="4">
+        <v>70</v>
+      </c>
+      <c r="E15" s="4">
+        <v>80</v>
+      </c>
+      <c r="F15" s="4">
+        <v>55</v>
+      </c>
+      <c r="G15" s="4">
+        <v>43</v>
+      </c>
+      <c r="H15" s="4">
+        <v>60</v>
+      </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:11">
@@ -1984,14 +2194,27 @@
       <c r="C16" s="6">
         <v>94</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="4">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4">
+        <v>55</v>
+      </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="G16" s="4">
+        <v>65</v>
+      </c>
+      <c r="H16" s="4">
+        <v>55</v>
+      </c>
+      <c r="I16" s="6">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="5">
         <v>18</v>
       </c>
@@ -2001,14 +2224,24 @@
       <c r="C17" s="6">
         <v>98</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="4">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45</v>
+      </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="G17" s="4">
+        <v>30</v>
+      </c>
+      <c r="H17" s="4">
+        <v>17</v>
+      </c>
+      <c r="I17" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="5">
         <v>10</v>
       </c>
@@ -2025,7 +2258,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:13">
       <c r="A19" s="5">
         <v>0</v>
       </c>
@@ -2042,7 +2275,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:13">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -2058,8 +2291,11 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="M20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2076,7 +2312,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:13">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -2093,7 +2329,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:13">
       <c r="A23" s="5">
         <v>16</v>
       </c>
@@ -2110,7 +2346,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:13">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2127,7 +2363,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:13">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -2144,7 +2380,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:13">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -2164,6 +2400,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2182,7 +2419,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <v>92</v>
@@ -2252,7 +2489,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>92</v>
@@ -2336,12 +2573,12 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -2367,13 +2604,13 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -3148,7 +3385,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>2</v>
@@ -3179,7 +3416,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3299,7 +3536,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="34">
         <v>245.4</v>

--- a/kawa.xlsx
+++ b/kawa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27706"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbols\OneDrive - Akademia Górniczo-Hutnicza im. Stanisława Staszica w Krakowie\Kawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{C1F3BD7B-E74C-4F91-BD75-E445506F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E97364-E0E1-4007-A1E6-7F22CAED9907}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{C1F3BD7B-E74C-4F91-BD75-E445506F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0197111-8D0F-4417-B64D-60BFC421073F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="413" r:id="rId5"/>
+    <pivotCache cacheId="1404" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>lp.</t>
   </si>
@@ -77,7 +77,16 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
     <t>Marcin Luter serdecznie nie pozdrawia Nadii Lech</t>
+  </si>
+  <si>
+    <t>Marcin Router III</t>
+  </si>
+  <si>
+    <t>Odbierał dostęp do sieci</t>
   </si>
   <si>
     <t>G/T</t>
@@ -830,16 +839,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -857,7 +866,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4343400" y="504825"/>
+          <a:off x="6410325" y="1009650"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="smileyFace">
@@ -1399,7 +1408,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna1" cacheId="413" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna1" cacheId="1404" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" compactData="0">
   <location ref="A2:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -1768,7 +1777,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
@@ -2183,6 +2192,9 @@
         <v>60</v>
       </c>
       <c r="I15" s="6"/>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5">
@@ -2251,12 +2263,22 @@
       <c r="C18" s="6">
         <v>96</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="4">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4">
+        <v>39</v>
+      </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="6"/>
+      <c r="G18" s="4">
+        <v>42</v>
+      </c>
+      <c r="H18" s="4">
+        <v>38</v>
+      </c>
+      <c r="I18" s="6">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5">
@@ -2268,12 +2290,22 @@
       <c r="C19" s="6">
         <v>92</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="4">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43</v>
+      </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="6"/>
+      <c r="G19" s="4">
+        <v>37</v>
+      </c>
+      <c r="H19" s="4">
+        <v>63</v>
+      </c>
+      <c r="I19" s="6">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5">
@@ -2285,14 +2317,22 @@
       <c r="C20" s="6">
         <v>98</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="4">
+        <v>65</v>
+      </c>
+      <c r="E20" s="4">
+        <v>30</v>
+      </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4">
+        <v>49</v>
+      </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="6">
+        <v>27</v>
+      </c>
       <c r="M20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2328,6 +2368,9 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6"/>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5">
@@ -2345,6 +2388,9 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="6"/>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="5">
@@ -2419,7 +2465,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1">
         <v>92</v>
@@ -2489,7 +2535,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>92</v>
@@ -2573,12 +2619,12 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -2604,13 +2650,13 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -3385,7 +3431,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>2</v>
@@ -3416,7 +3462,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3536,7 +3582,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="34">
         <v>245.4</v>

--- a/kawa.xlsx
+++ b/kawa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbols\OneDrive - Akademia Górniczo-Hutnicza im. Stanisława Staszica w Krakowie\Kawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{C1F3BD7B-E74C-4F91-BD75-E445506F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0197111-8D0F-4417-B64D-60BFC421073F}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{C1F3BD7B-E74C-4F91-BD75-E445506F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99EDF3A4-BB7C-49C6-8D61-EC4C38AC4A5C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="1404" r:id="rId5"/>
+    <pivotCache cacheId="6169" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1408,7 +1408,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna1" cacheId="1404" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna1" cacheId="6169" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" compactData="0">
   <location ref="A2:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -1777,7 +1777,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
@@ -2345,12 +2345,22 @@
       <c r="C21" s="6">
         <v>100</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="4">
+        <v>47</v>
+      </c>
+      <c r="E21" s="4">
+        <v>28</v>
+      </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="6"/>
+      <c r="G21" s="4">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4">
+        <v>14</v>
+      </c>
+      <c r="I21" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="5">
@@ -2362,12 +2372,22 @@
       <c r="C22" s="6">
         <v>92</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="4">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4">
+        <v>25</v>
+      </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="6"/>
+      <c r="G22" s="4">
+        <v>34</v>
+      </c>
+      <c r="H22" s="4">
+        <v>37</v>
+      </c>
+      <c r="I22" s="6">
+        <v>12</v>
+      </c>
       <c r="M22" t="s">
         <v>12</v>
       </c>

--- a/kawa.xlsx
+++ b/kawa.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27804"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbols\OneDrive - Akademia Górniczo-Hutnicza im. Stanisława Staszica w Krakowie\Kawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{C1F3BD7B-E74C-4F91-BD75-E445506F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99EDF3A4-BB7C-49C6-8D61-EC4C38AC4A5C}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{C1F3BD7B-E74C-4F91-BD75-E445506F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94BD20E0-B16A-4773-9C55-107BDF789810}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="lepszy zapis" sheetId="2" r:id="rId2"/>
-    <sheet name="Przekształcone dane" sheetId="3" r:id="rId3"/>
-    <sheet name="Arkusz2" sheetId="4" r:id="rId4"/>
+    <sheet name="Przekształcone dane" sheetId="3" r:id="rId2"/>
+    <sheet name="Arkusz2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="6169" r:id="rId5"/>
+    <pivotCache cacheId="10678" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>lp.</t>
   </si>
@@ -89,7 +88,10 @@
     <t>Odbierał dostęp do sieci</t>
   </si>
   <si>
-    <t>G/T</t>
+    <t>dupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
   <si>
     <t>WAŻNE SZCZEGÓŁY</t>
@@ -152,7 +154,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,14 +163,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF33CCCC"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -573,7 +569,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -581,8 +577,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
@@ -625,6 +619,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1408,7 +1405,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna1" cacheId="6169" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna1" cacheId="10678" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" compactData="0">
   <location ref="A2:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -1774,10 +1771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
@@ -1864,7 +1861,7 @@
       <c r="E3" s="4">
         <v>45</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="4">
         <v>32</v>
       </c>
@@ -1891,11 +1888,11 @@
       <c r="E4" s="4">
         <v>55</v>
       </c>
-      <c r="F4" s="38"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="4">
         <v>15</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="6">
         <v>55</v>
       </c>
@@ -1919,7 +1916,7 @@
       <c r="E5" s="4">
         <v>40</v>
       </c>
-      <c r="F5" s="38"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="4">
         <v>20</v>
       </c>
@@ -1944,7 +1941,7 @@
       <c r="E6" s="4">
         <v>60</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="4">
         <v>51</v>
       </c>
@@ -1969,7 +1966,7 @@
       <c r="E7" s="4">
         <v>70</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="4">
         <v>55</v>
       </c>
@@ -1999,7 +1996,7 @@
       <c r="E8" s="4">
         <v>75</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="4">
         <v>67</v>
       </c>
@@ -2026,7 +2023,7 @@
       <c r="E9" s="4">
         <v>30</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="4">
         <v>8</v>
       </c>
@@ -2115,29 +2112,29 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="5">
+      <c r="A13" s="37">
         <v>7</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="38">
         <v>12</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="38">
         <v>94</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="39">
         <v>5</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="39">
         <v>31</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
+      <c r="F13" s="39"/>
+      <c r="G13" s="39">
         <v>2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="39">
         <v>6</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5">
@@ -2402,12 +2399,24 @@
       <c r="C23" s="6">
         <v>98</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="6"/>
+      <c r="D23" s="4">
+        <v>16</v>
+      </c>
+      <c r="E23" s="4">
+        <v>50</v>
+      </c>
+      <c r="F23" s="4">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4">
+        <v>43</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="6">
+        <v>40</v>
+      </c>
       <c r="M23" t="s">
         <v>13</v>
       </c>
@@ -2422,12 +2431,22 @@
       <c r="C24" s="6">
         <v>100</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="6"/>
+      <c r="G24" s="4">
+        <v>33</v>
+      </c>
+      <c r="H24" s="4">
+        <v>19</v>
+      </c>
+      <c r="I24" s="6">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="5">
@@ -2439,12 +2458,20 @@
       <c r="C25" s="6">
         <v>92</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="4">
+        <v>47</v>
+      </c>
+      <c r="E25" s="4">
+        <v>75</v>
+      </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4">
+        <v>32</v>
+      </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="5">
@@ -2456,12 +2483,29 @@
       <c r="C26" s="6">
         <v>100</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="6"/>
+      <c r="D26" s="4">
+        <v>6</v>
+      </c>
+      <c r="E26" s="4">
+        <v>35</v>
+      </c>
+      <c r="F26" s="4">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4">
+        <v>57</v>
+      </c>
+      <c r="H26" s="4">
+        <v>14</v>
+      </c>
+      <c r="I26" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2471,157 +2515,779 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>94</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="I7">
+        <v>83</v>
+      </c>
+      <c r="J7">
+        <v>67</v>
+      </c>
+      <c r="K7">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>67</v>
+      </c>
+      <c r="G8">
+        <v>82</v>
+      </c>
+      <c r="H8">
+        <v>59</v>
+      </c>
+      <c r="I8">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>92</v>
+      </c>
+      <c r="F9">
+        <v>91</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <v>46</v>
+      </c>
+      <c r="J9">
+        <v>82</v>
+      </c>
+      <c r="K9">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>98</v>
+      </c>
+      <c r="F10">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>72</v>
+      </c>
+      <c r="I10">
+        <v>81</v>
+      </c>
+      <c r="J10">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>14</v>
       </c>
-      <c r="B1">
+      <c r="E11">
         <v>92</v>
       </c>
-      <c r="C1">
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
+      </c>
+      <c r="I11">
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <v>81</v>
+      </c>
+      <c r="K11">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
         <v>94</v>
       </c>
-      <c r="D1">
+      <c r="F12">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>97</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <v>98</v>
+      </c>
+      <c r="K12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
         <v>96</v>
       </c>
-      <c r="E1">
+      <c r="F13">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>85</v>
+      </c>
+      <c r="J13">
+        <v>68</v>
+      </c>
+      <c r="K13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <v>72</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>82</v>
+      </c>
+      <c r="I14">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>94</v>
+      </c>
+      <c r="G15">
+        <v>51</v>
+      </c>
+      <c r="H15">
+        <v>81</v>
+      </c>
+      <c r="I15">
+        <v>84</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>73</v>
+      </c>
+      <c r="G16">
+        <v>69</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
         <v>98</v>
       </c>
-      <c r="F1">
+      <c r="F17">
+        <v>52</v>
+      </c>
+      <c r="G17">
+        <v>85</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>46</v>
+      </c>
+      <c r="J17">
+        <v>63</v>
+      </c>
+      <c r="K17">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>94</v>
+      </c>
+      <c r="F18">
+        <v>52</v>
+      </c>
+      <c r="G18">
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <v>57</v>
+      </c>
+      <c r="I18">
+        <v>89</v>
+      </c>
+      <c r="J18">
+        <v>76</v>
+      </c>
+      <c r="K18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>96</v>
+      </c>
+      <c r="F19">
+        <v>62</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>90</v>
+      </c>
+      <c r="J19">
+        <v>92</v>
+      </c>
+      <c r="K19">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>94</v>
+      </c>
+      <c r="F20">
+        <v>88</v>
+      </c>
+      <c r="G20">
+        <v>71</v>
+      </c>
+      <c r="H20">
+        <v>69</v>
+      </c>
+      <c r="I20">
+        <v>65</v>
+      </c>
+      <c r="J20">
+        <v>15</v>
+      </c>
+      <c r="K20">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>94</v>
+      </c>
+      <c r="F21">
+        <v>28</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>98</v>
+      </c>
+      <c r="F22">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>75</v>
+      </c>
+      <c r="H22">
+        <v>68</v>
+      </c>
+      <c r="I22">
+        <v>28</v>
+      </c>
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <v>53</v>
+      </c>
+      <c r="G23">
+        <v>87</v>
+      </c>
+      <c r="H23">
+        <v>34</v>
+      </c>
+      <c r="I23">
+        <v>94</v>
+      </c>
+      <c r="J23">
+        <v>21</v>
+      </c>
+      <c r="K23">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>92</v>
+      </c>
+      <c r="F24">
+        <v>48</v>
+      </c>
+      <c r="G24">
+        <v>92</v>
+      </c>
+      <c r="H24">
+        <v>44</v>
+      </c>
+      <c r="I24">
+        <v>91</v>
+      </c>
+      <c r="J24">
+        <v>54</v>
+      </c>
+      <c r="K24">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>98</v>
+      </c>
+      <c r="F25">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>76</v>
+      </c>
+      <c r="I25">
+        <v>13</v>
+      </c>
+      <c r="J25">
+        <v>38</v>
+      </c>
+      <c r="K25">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>35</v>
+      </c>
+      <c r="I26">
+        <v>42</v>
+      </c>
+      <c r="J26">
+        <v>50</v>
+      </c>
+      <c r="K26">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>92</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>85</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="D28">
         <v>11</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="E28">
+        <v>98</v>
+      </c>
+      <c r="F28">
+        <v>47</v>
+      </c>
+      <c r="G28">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>69</v>
+      </c>
+      <c r="J28">
+        <v>98</v>
+      </c>
+      <c r="K28">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="C29">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>86</v>
+      </c>
+      <c r="G29">
+        <v>41</v>
+      </c>
+      <c r="H29">
+        <v>48</v>
+      </c>
+      <c r="I29">
+        <v>58</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
         <v>13</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="E30">
+        <v>92</v>
+      </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <v>71</v>
+      </c>
+      <c r="H30">
+        <v>54</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <v>70</v>
+      </c>
+      <c r="K30">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="C31">
+        <v>24</v>
+      </c>
+      <c r="D31">
         <v>14</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>92</v>
-      </c>
-      <c r="C8">
-        <v>94</v>
-      </c>
-      <c r="D8">
-        <v>96</v>
-      </c>
-      <c r="E8">
-        <v>98</v>
-      </c>
-      <c r="F8">
+      <c r="E31">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>14</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F31">
+        <v>17</v>
+      </c>
+      <c r="G31">
+        <v>99</v>
+      </c>
+      <c r="H31">
+        <v>88</v>
+      </c>
+      <c r="I31">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>53.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2630,792 +3296,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:K31"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="2" spans="2:11">
-      <c r="B2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="10"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>94</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>26</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-      <c r="I7">
-        <v>83</v>
-      </c>
-      <c r="J7">
-        <v>67</v>
-      </c>
-      <c r="K7">
-        <v>67.2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="C8">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>67</v>
-      </c>
-      <c r="G8">
-        <v>82</v>
-      </c>
-      <c r="H8">
-        <v>59</v>
-      </c>
-      <c r="I8">
-        <v>17</v>
-      </c>
-      <c r="J8">
-        <v>30</v>
-      </c>
-      <c r="K8">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>92</v>
-      </c>
-      <c r="F9">
-        <v>91</v>
-      </c>
-      <c r="G9">
-        <v>60</v>
-      </c>
-      <c r="H9">
-        <v>47</v>
-      </c>
-      <c r="I9">
-        <v>46</v>
-      </c>
-      <c r="J9">
-        <v>82</v>
-      </c>
-      <c r="K9">
-        <v>65.2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="C10">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>98</v>
-      </c>
-      <c r="F10">
-        <v>33</v>
-      </c>
-      <c r="G10">
-        <v>41</v>
-      </c>
-      <c r="H10">
-        <v>72</v>
-      </c>
-      <c r="I10">
-        <v>81</v>
-      </c>
-      <c r="J10">
-        <v>45</v>
-      </c>
-      <c r="K10">
-        <v>54.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>92</v>
-      </c>
-      <c r="F11">
-        <v>24</v>
-      </c>
-      <c r="G11">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <v>60</v>
-      </c>
-      <c r="I11">
-        <v>27</v>
-      </c>
-      <c r="J11">
-        <v>81</v>
-      </c>
-      <c r="K11">
-        <v>42.4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>94</v>
-      </c>
-      <c r="F12">
-        <v>33</v>
-      </c>
-      <c r="G12">
-        <v>97</v>
-      </c>
-      <c r="H12">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <v>16</v>
-      </c>
-      <c r="J12">
-        <v>98</v>
-      </c>
-      <c r="K12">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>96</v>
-      </c>
-      <c r="F13">
-        <v>49</v>
-      </c>
-      <c r="G13">
-        <v>27</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>85</v>
-      </c>
-      <c r="J13">
-        <v>68</v>
-      </c>
-      <c r="K13">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>96</v>
-      </c>
-      <c r="F14">
-        <v>72</v>
-      </c>
-      <c r="G14">
-        <v>32</v>
-      </c>
-      <c r="H14">
-        <v>82</v>
-      </c>
-      <c r="I14">
-        <v>48</v>
-      </c>
-      <c r="J14">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>96</v>
-      </c>
-      <c r="F15">
-        <v>94</v>
-      </c>
-      <c r="G15">
-        <v>51</v>
-      </c>
-      <c r="H15">
-        <v>81</v>
-      </c>
-      <c r="I15">
-        <v>84</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>62.4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="C16">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16">
-        <v>73</v>
-      </c>
-      <c r="G16">
-        <v>69</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16">
-        <v>51.4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11">
-      <c r="C17">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>98</v>
-      </c>
-      <c r="F17">
-        <v>52</v>
-      </c>
-      <c r="G17">
-        <v>85</v>
-      </c>
-      <c r="H17">
-        <v>11</v>
-      </c>
-      <c r="I17">
-        <v>46</v>
-      </c>
-      <c r="J17">
-        <v>63</v>
-      </c>
-      <c r="K17">
-        <v>51.4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11">
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>94</v>
-      </c>
-      <c r="F18">
-        <v>52</v>
-      </c>
-      <c r="G18">
-        <v>36</v>
-      </c>
-      <c r="H18">
-        <v>57</v>
-      </c>
-      <c r="I18">
-        <v>89</v>
-      </c>
-      <c r="J18">
-        <v>76</v>
-      </c>
-      <c r="K18">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11">
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>96</v>
-      </c>
-      <c r="F19">
-        <v>62</v>
-      </c>
-      <c r="G19">
-        <v>13</v>
-      </c>
-      <c r="H19">
-        <v>19</v>
-      </c>
-      <c r="I19">
-        <v>90</v>
-      </c>
-      <c r="J19">
-        <v>92</v>
-      </c>
-      <c r="K19">
-        <v>55.2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>94</v>
-      </c>
-      <c r="F20">
-        <v>88</v>
-      </c>
-      <c r="G20">
-        <v>71</v>
-      </c>
-      <c r="H20">
-        <v>69</v>
-      </c>
-      <c r="I20">
-        <v>65</v>
-      </c>
-      <c r="J20">
-        <v>15</v>
-      </c>
-      <c r="K20">
-        <v>61.6</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11">
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>94</v>
-      </c>
-      <c r="F21">
-        <v>28</v>
-      </c>
-      <c r="G21">
-        <v>11</v>
-      </c>
-      <c r="H21">
-        <v>12</v>
-      </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <v>37</v>
-      </c>
-      <c r="K21">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11">
-      <c r="C22">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>98</v>
-      </c>
-      <c r="F22">
-        <v>70</v>
-      </c>
-      <c r="G22">
-        <v>75</v>
-      </c>
-      <c r="H22">
-        <v>68</v>
-      </c>
-      <c r="I22">
-        <v>28</v>
-      </c>
-      <c r="J22">
-        <v>21</v>
-      </c>
-      <c r="K22">
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>96</v>
-      </c>
-      <c r="F23">
-        <v>53</v>
-      </c>
-      <c r="G23">
-        <v>87</v>
-      </c>
-      <c r="H23">
-        <v>34</v>
-      </c>
-      <c r="I23">
-        <v>94</v>
-      </c>
-      <c r="J23">
-        <v>21</v>
-      </c>
-      <c r="K23">
-        <v>57.8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11">
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>92</v>
-      </c>
-      <c r="F24">
-        <v>48</v>
-      </c>
-      <c r="G24">
-        <v>92</v>
-      </c>
-      <c r="H24">
-        <v>44</v>
-      </c>
-      <c r="I24">
-        <v>91</v>
-      </c>
-      <c r="J24">
-        <v>54</v>
-      </c>
-      <c r="K24">
-        <v>65.8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11">
-      <c r="C25">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>98</v>
-      </c>
-      <c r="F25">
-        <v>31</v>
-      </c>
-      <c r="G25">
-        <v>30</v>
-      </c>
-      <c r="H25">
-        <v>76</v>
-      </c>
-      <c r="I25">
-        <v>13</v>
-      </c>
-      <c r="J25">
-        <v>38</v>
-      </c>
-      <c r="K25">
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11">
-      <c r="C26">
-        <v>20</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <v>100</v>
-      </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
-      <c r="H26">
-        <v>35</v>
-      </c>
-      <c r="I26">
-        <v>42</v>
-      </c>
-      <c r="J26">
-        <v>50</v>
-      </c>
-      <c r="K26">
-        <v>65.400000000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11">
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <v>92</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>85</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <v>36</v>
-      </c>
-      <c r="K27">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11">
-      <c r="C28">
-        <v>16</v>
-      </c>
-      <c r="D28">
-        <v>11</v>
-      </c>
-      <c r="E28">
-        <v>98</v>
-      </c>
-      <c r="F28">
-        <v>47</v>
-      </c>
-      <c r="G28">
-        <v>38</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
-      </c>
-      <c r="I28">
-        <v>69</v>
-      </c>
-      <c r="J28">
-        <v>98</v>
-      </c>
-      <c r="K28">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11">
-      <c r="C29">
-        <v>21</v>
-      </c>
-      <c r="D29">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>100</v>
-      </c>
-      <c r="F29">
-        <v>86</v>
-      </c>
-      <c r="G29">
-        <v>41</v>
-      </c>
-      <c r="H29">
-        <v>48</v>
-      </c>
-      <c r="I29">
-        <v>58</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11">
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>13</v>
-      </c>
-      <c r="E30">
-        <v>92</v>
-      </c>
-      <c r="F30">
-        <v>17</v>
-      </c>
-      <c r="G30">
-        <v>71</v>
-      </c>
-      <c r="H30">
-        <v>54</v>
-      </c>
-      <c r="I30">
-        <v>20</v>
-      </c>
-      <c r="J30">
-        <v>70</v>
-      </c>
-      <c r="K30">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11">
-      <c r="C31">
-        <v>24</v>
-      </c>
-      <c r="D31">
-        <v>14</v>
-      </c>
-      <c r="E31">
-        <v>100</v>
-      </c>
-      <c r="F31">
-        <v>17</v>
-      </c>
-      <c r="G31">
-        <v>99</v>
-      </c>
-      <c r="H31">
-        <v>88</v>
-      </c>
-      <c r="I31">
-        <v>17</v>
-      </c>
-      <c r="J31">
-        <v>47</v>
-      </c>
-      <c r="K31">
-        <v>53.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
@@ -3450,176 +3335,176 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>92</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <v>94</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>96</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>98</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="15">
         <v>100</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>20</v>
+      <c r="G3" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <v>10</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>65.8</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>19.600000000000001</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>57.8</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <v>37.6</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>65.400000000000006</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="21">
         <v>246.2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="24">
+      <c r="A5" s="22">
         <v>11</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="23">
         <v>65.2</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>52</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="24">
         <v>55.2</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="24">
         <v>51.6</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <v>46.8</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="26">
         <v>270.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="24">
+      <c r="A6" s="22">
         <v>12</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="23">
         <v>25.6</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>62</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <v>53.2</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <v>54.4</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="25">
         <v>51</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="26">
         <v>246.2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="24">
+      <c r="A7" s="22">
         <v>13</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="23">
         <v>46.4</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="24">
         <v>67.2</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="24">
         <v>62.4</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="24">
         <v>52.4</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="25">
         <v>51.4</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <v>279.8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="24">
+      <c r="A8" s="22">
         <v>14</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="27">
         <v>42.4</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="28">
         <v>61.6</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="28">
         <v>46</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="28">
         <v>51.4</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="29">
         <v>53.6</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="30">
         <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="34">
+      <c r="A9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="32">
         <v>245.4</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="33">
         <v>262.39999999999998</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="33">
         <v>274.60000000000002</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="33">
         <v>247.4</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="34">
         <v>268.2</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="35">
         <v>1298</v>
       </c>
     </row>

--- a/kawa.xlsx
+++ b/kawa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27804"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbols\OneDrive - Akademia Górniczo-Hutnicza im. Stanisława Staszica w Krakowie\Kawa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl-my.sharepoint.com/personal/kbolszewski_student_agh_edu_pl/Documents/Kawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{C1F3BD7B-E74C-4F91-BD75-E445506F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94BD20E0-B16A-4773-9C55-107BDF789810}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="13_ncr:1_{C1F3BD7B-E74C-4F91-BD75-E445506F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A88109DB-51AA-428C-89E1-FB50E10FAA7F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4116" yWindow="96" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="10678" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>lp.</t>
   </si>
@@ -73,7 +73,13 @@
     <t>Ola</t>
   </si>
   <si>
+    <t>Maria</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Ø</t>
   </si>
   <si>
     <t xml:space="preserve">       </t>
@@ -88,7 +94,7 @@
     <t>Odbierał dostęp do sieci</t>
   </si>
   <si>
-    <t>dupa</t>
+    <t>kawa nr 7, pierwsze podejście kiedy przyszedł pasiecznik</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -116,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -726,7 +732,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1405,7 +1411,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna1" cacheId="10678" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" compactData="0">
   <location ref="A2:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -1771,23 +1777,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="9" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="1.28515625" customWidth="1"/>
+    <col min="4" max="9" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1815,8 +1821,11 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>8</v>
       </c>
@@ -1845,7 +1854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>22</v>
       </c>
@@ -1872,7 +1881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1897,10 +1906,10 @@
         <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>17</v>
       </c>
@@ -1925,7 +1934,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1977,10 +1986,10 @@
         <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>14</v>
       </c>
@@ -2007,7 +2016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>12</v>
       </c>
@@ -2032,7 +2041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>13</v>
       </c>
@@ -2059,7 +2068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>23</v>
       </c>
@@ -2084,7 +2093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>19</v>
       </c>
@@ -2111,7 +2120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="37">
         <v>7</v>
       </c>
@@ -2122,21 +2131,24 @@
         <v>94</v>
       </c>
       <c r="D13" s="39">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E13" s="39">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39">
-        <v>2</v>
-      </c>
-      <c r="H13" s="39">
-        <v>6</v>
-      </c>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="1:11">
+        <v>32</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="38">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -2163,7 +2175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -2190,10 +2202,10 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>5</v>
       </c>
@@ -2220,10 +2232,10 @@
         <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>18</v>
       </c>
@@ -2250,7 +2262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>10</v>
       </c>
@@ -2277,7 +2289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>0</v>
       </c>
@@ -2304,7 +2316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -2329,10 +2341,10 @@
         <v>27</v>
       </c>
       <c r="M20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2359,7 +2371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -2386,10 +2398,10 @@
         <v>12</v>
       </c>
       <c r="M22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>16</v>
       </c>
@@ -2418,10 +2430,10 @@
         <v>40</v>
       </c>
       <c r="M23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2434,9 +2446,7 @@
       <c r="D24" s="4">
         <v>4</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
         <v>33</v>
@@ -2448,7 +2458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -2473,7 +2483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -2502,9 +2512,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N29" s="39">
+        <v>5</v>
+      </c>
+      <c r="O29" s="39">
+        <v>31</v>
+      </c>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39">
+        <v>2</v>
+      </c>
+      <c r="R29" s="39">
+        <v>6</v>
+      </c>
+      <c r="S29" s="38"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2520,22 +2551,22 @@
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -2555,16 +2586,16 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>8</v>
       </c>
@@ -2593,7 +2624,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>22</v>
       </c>
@@ -2622,7 +2653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>1</v>
       </c>
@@ -2651,7 +2682,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>17</v>
       </c>
@@ -2680,7 +2711,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>4</v>
       </c>
@@ -2709,7 +2740,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>6</v>
       </c>
@@ -2738,7 +2769,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>14</v>
       </c>
@@ -2767,7 +2798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>12</v>
       </c>
@@ -2796,7 +2827,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>13</v>
       </c>
@@ -2825,7 +2856,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>23</v>
       </c>
@@ -2854,7 +2885,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>19</v>
       </c>
@@ -2883,7 +2914,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="18" spans="3:11">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>7</v>
       </c>
@@ -2912,7 +2943,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>11</v>
       </c>
@@ -2941,7 +2972,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="20" spans="3:11">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>9</v>
       </c>
@@ -2970,7 +3001,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="21" spans="3:11">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>5</v>
       </c>
@@ -2999,7 +3030,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="3:11">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>18</v>
       </c>
@@ -3028,7 +3059,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="23" spans="3:11">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>10</v>
       </c>
@@ -3057,7 +3088,7 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="24" spans="3:11">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>0</v>
       </c>
@@ -3086,7 +3117,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="25" spans="3:11">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>15</v>
       </c>
@@ -3115,7 +3146,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="26" spans="3:11">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>20</v>
       </c>
@@ -3144,7 +3175,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="27" spans="3:11">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>2</v>
       </c>
@@ -3173,7 +3204,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="28" spans="3:11">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>16</v>
       </c>
@@ -3202,7 +3233,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="29" spans="3:11">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>21</v>
       </c>
@@ -3231,7 +3262,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="30" spans="3:11">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>3</v>
       </c>
@@ -3260,7 +3291,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="31" spans="3:11">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>24</v>
       </c>
@@ -3303,40 +3334,40 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" customWidth="1"/>
     <col min="19" max="19" width="23" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
-    <col min="22" max="22" width="22.7109375" customWidth="1"/>
-    <col min="23" max="23" width="20.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="22" max="22" width="22.6640625" customWidth="1"/>
+    <col min="23" max="23" width="20.33203125" customWidth="1"/>
+    <col min="24" max="24" width="20.6640625" customWidth="1"/>
     <col min="25" max="25" width="23" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" customWidth="1"/>
-    <col min="27" max="27" width="22.7109375" customWidth="1"/>
-    <col min="28" max="28" width="20.28515625" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" customWidth="1"/>
+    <col min="26" max="26" width="13.88671875" customWidth="1"/>
+    <col min="27" max="27" width="22.6640625" customWidth="1"/>
+    <col min="28" max="28" width="20.33203125" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" customWidth="1"/>
     <col min="30" max="30" width="23" customWidth="1"/>
-    <col min="31" max="31" width="20.85546875" customWidth="1"/>
+    <col min="31" max="31" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>2</v>
@@ -3347,7 +3378,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -3367,10 +3398,10 @@
         <v>100</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>10</v>
       </c>
@@ -3393,7 +3424,7 @@
         <v>246.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>11</v>
       </c>
@@ -3416,7 +3447,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>12</v>
       </c>
@@ -3439,7 +3470,7 @@
         <v>246.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>13</v>
       </c>
@@ -3462,7 +3493,7 @@
         <v>279.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>14</v>
       </c>
@@ -3485,9 +3516,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="32">
         <v>245.4</v>
